--- a/Bases/IPC_NEA_2004.xlsx
+++ b/Bases/IPC_NEA_2004.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\OneDrive\Documentos\CELINE\IPECD\Pobreza INDEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fee6d7d0d7966abb/Documentos/CELINE/FACULTAD/Maestría en Estadística Aplicada/4to semestre/Tesis/Nonresponse-bias-eph/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A055FE-4D4C-404F-B591-11C549397662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{C9A055FE-4D4C-404F-B591-11C549397662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{972E123D-33C6-4F78-AE42-422C75D24CE5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{43181346-4C2F-4E6F-B95A-C3C00036CA87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{43181346-4C2F-4E6F-B95A-C3C00036CA87}"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -167,6 +167,7 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995CCC80-4E85-4BBC-B66A-B93686E06ABD}">
-  <dimension ref="A1:F243"/>
+  <dimension ref="A1:F254"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B243"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242:C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5289,6 +5290,94 @@
         <v>65942.452045258557</v>
       </c>
     </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B244" s="3">
+        <v>72764.8083165016</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B245" s="3">
+        <v>77338.828499124007</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B246" s="3">
+        <v>80224.302394782324</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B247" s="3">
+        <v>83740.359181768086</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B248" s="3">
+        <v>87597.271585687588</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B249" s="3">
+        <v>91421.409411055763</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B250" s="3">
+        <v>94407.829008652159</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B251" s="3">
+        <v>96826.592905739672</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B252" s="3">
+        <v>98546.602788113014</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B253" s="3">
+        <v>101434.69865005545</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B254" s="3">
+        <v>103949.16431651283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5296,11 +5385,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D36588-7FD0-4B3B-BAE5-329A759231BA}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5876,7 +5965,7 @@
         <v>1174.1036673673643</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" ref="D51:D81" si="0">C51/AVERAGE($C$50:$C$53)*100</f>
+        <f t="shared" ref="D51:D85" si="0">C51/AVERAGE($C$50:$C$53)*100</f>
         <v>98.218112841349054</v>
       </c>
     </row>
@@ -6328,6 +6417,66 @@
       <c r="D81" s="8">
         <f t="shared" si="0"/>
         <v>3426.5950004838623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2024</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="9">
+        <v>66056.944572997847</v>
+      </c>
+      <c r="D82" s="8">
+        <f t="shared" si="0"/>
+        <v>5525.9076488306564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2024</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" s="9">
+        <v>80434.496691891472</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="0"/>
+        <v>6728.643042343424</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2024</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" s="9">
+        <v>91142.170001798499</v>
+      </c>
+      <c r="D84" s="8">
+        <f t="shared" si="0"/>
+        <v>7624.3795046771947</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2024</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" s="9">
+        <v>98935.964781302711</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="0"/>
+        <v>8276.3592543291888</v>
       </c>
     </row>
   </sheetData>
